--- a/output/CSHG_28971607000138.xlsx
+++ b/output/CSHG_28971607000138.xlsx
@@ -746,10 +746,10 @@
         <v>44165</v>
       </c>
       <c r="B33">
-        <v>0.3426785999999999</v>
+        <v>0.3623387</v>
       </c>
       <c r="C33">
-        <v>0.05699362353533344</v>
+        <v>0.07247059645950693</v>
       </c>
     </row>
   </sheetData>

--- a/output/CSHG_28971607000138.xlsx
+++ b/output/CSHG_28971607000138.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CSHG PORTFOLIO FUTURE TRENDS FUNDO DE INVESTIMENTO EM COTAS DE FI MULTIMERCADO - IE</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,370 +383,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43220</v>
       </c>
       <c r="B2">
-        <v>-0.0170283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43251</v>
       </c>
       <c r="B3">
-        <v>0.009274599999999911</v>
-      </c>
-      <c r="C3">
         <v>0.02675855266229932</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43281</v>
       </c>
       <c r="B4">
-        <v>0.007705099999999909</v>
-      </c>
-      <c r="C4">
         <v>-0.0015550772802565</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43312</v>
       </c>
       <c r="B5">
-        <v>0.03399829999999993</v>
-      </c>
-      <c r="C5">
         <v>0.02609215731864412</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43343</v>
       </c>
       <c r="B6">
-        <v>0.05467780000000011</v>
-      </c>
-      <c r="C6">
         <v>0.01999954932227666</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43373</v>
       </c>
       <c r="B7">
-        <v>0.0553859000000001</v>
-      </c>
-      <c r="C7">
         <v>0.0006713898785013495</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43404</v>
       </c>
       <c r="B8">
-        <v>-0.02525230000000001</v>
-      </c>
-      <c r="C8">
         <v>-0.07640636472403139</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43434</v>
       </c>
       <c r="B9">
-        <v>-0.004258899999999954</v>
-      </c>
-      <c r="C9">
         <v>0.021537265489316</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43465</v>
       </c>
       <c r="B10">
-        <v>-0.06642870000000001</v>
-      </c>
-      <c r="C10">
         <v>-0.06243570743439242</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43496</v>
       </c>
       <c r="B11">
-        <v>0.002521299999999949</v>
-      </c>
-      <c r="C11">
         <v>0.07385616931454497</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43524</v>
       </c>
       <c r="B12">
-        <v>0.0361781000000001</v>
-      </c>
-      <c r="C12">
         <v>0.03357215452679174</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43555</v>
       </c>
       <c r="B13">
-        <v>0.05351320000000004</v>
-      </c>
-      <c r="C13">
         <v>0.01672984595987881</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43585</v>
       </c>
       <c r="B14">
-        <v>0.08633120000000005</v>
-      </c>
-      <c r="C14">
         <v>0.03115100978326613</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43616</v>
       </c>
       <c r="B15">
-        <v>0.04702889999999993</v>
-      </c>
-      <c r="C15">
         <v>-0.03617892959347957</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43646</v>
       </c>
       <c r="B16">
-        <v>0.09889740000000002</v>
-      </c>
-      <c r="C16">
         <v>0.04953874721127582</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43677</v>
       </c>
       <c r="B17">
-        <v>0.09254659999999992</v>
-      </c>
-      <c r="C17">
         <v>-0.005779247452947001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43708</v>
       </c>
       <c r="B18">
-        <v>0.09554649999999998</v>
-      </c>
-      <c r="C18">
         <v>0.002745786770102177</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43738</v>
       </c>
       <c r="B19">
-        <v>0.1070529</v>
-      </c>
-      <c r="C19">
         <v>0.01050288600255667</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43769</v>
       </c>
       <c r="B20">
-        <v>0.1212883</v>
-      </c>
-      <c r="C20">
         <v>0.01285882544546868</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43799</v>
       </c>
       <c r="B21">
-        <v>0.1561501999999999</v>
-      </c>
-      <c r="C21">
         <v>0.03109093352708658</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43830</v>
       </c>
       <c r="B22">
-        <v>0.1755533</v>
-      </c>
-      <c r="C22">
         <v>0.01678250801669212</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43861</v>
       </c>
       <c r="B23">
-        <v>0.182885</v>
-      </c>
-      <c r="C23">
         <v>0.00623680780786362</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43890</v>
       </c>
       <c r="B24">
-        <v>0.1369271000000001</v>
-      </c>
-      <c r="C24">
         <v>-0.03885238209969688</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43921</v>
       </c>
       <c r="B25">
-        <v>0.1000654000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.03242221950730173</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43951</v>
       </c>
       <c r="B26">
-        <v>0.1705783000000001</v>
-      </c>
-      <c r="C26">
         <v>0.06409882539710821</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43982</v>
       </c>
       <c r="B27">
-        <v>0.2059211000000001</v>
-      </c>
-      <c r="C27">
         <v>0.03019259796632134</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44012</v>
       </c>
       <c r="B28">
-        <v>0.2512734999999999</v>
-      </c>
-      <c r="C28">
         <v>0.03760809890464634</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44043</v>
       </c>
       <c r="B29">
-        <v>0.2903385000000001</v>
-      </c>
-      <c r="C29">
         <v>0.03122019286750666</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44074</v>
       </c>
       <c r="B30">
-        <v>0.3471436999999999</v>
-      </c>
-      <c r="C30">
         <v>0.04402348686023072</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44104</v>
       </c>
       <c r="B31">
-        <v>0.3145618999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.02418583852635769</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44135</v>
       </c>
       <c r="B32">
-        <v>0.2702807</v>
-      </c>
-      <c r="C32">
         <v>-0.03368513875230972</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44165</v>
       </c>
       <c r="B33">
-        <v>0.3623387</v>
-      </c>
-      <c r="C33">
-        <v>0.07247059645950693</v>
+        <v>0.0687718076799877</v>
       </c>
     </row>
   </sheetData>
